--- a/summary-tables/SummaryTable_County_wTotals_formatted_Scenario1.xlsx
+++ b/summary-tables/SummaryTable_County_wTotals_formatted_Scenario1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\summary-tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B52084F-F66D-4567-B8B1-EBF78D1D1EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2B878C-4F67-4590-A72B-8EBFD6264CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15630" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitsDensity" sheetId="1" r:id="rId1"/>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="D4" s="11">
         <f>C4/$C$8</f>
-        <v>0.15365116768170659</v>
+        <v>0.15365116770121925</v>
       </c>
       <c r="E4" s="3">
         <f>(H4+K4)/($H$8+$K$8)</f>
-        <v>9.7346261801479969E-2</v>
+        <v>0.10119386014781126</v>
       </c>
       <c r="F4" s="10">
         <f>SummaryTable_County_wTotals!E2</f>
@@ -1264,11 +1264,11 @@
       </c>
       <c r="J4" s="1">
         <f>SummaryTable_County_wTotals!I2</f>
-        <v>33400</v>
+        <v>46100</v>
       </c>
       <c r="K4" s="18">
         <f>SummaryTable_County_wTotals!J2</f>
-        <v>23300</v>
+        <v>36000</v>
       </c>
       <c r="L4" s="10">
         <f>SummaryTable_County_wTotals!K2</f>
@@ -1276,11 +1276,11 @@
       </c>
       <c r="M4" s="1">
         <f>SummaryTable_County_wTotals!L2</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N4" s="18">
         <f>SummaryTable_County_wTotals!M2</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1294,11 +1294,11 @@
       </c>
       <c r="D5" s="13">
         <f>C5/$C$8</f>
-        <v>0.15609999827560464</v>
+        <v>0.15609999829542831</v>
       </c>
       <c r="E5" s="4">
         <f>(H5+K5)/($H$8+$K$8)</f>
-        <v>0.16496555243684613</v>
+        <v>0.16702671972711769</v>
       </c>
       <c r="F5" s="12">
         <f>SummaryTable_County_wTotals!E3</f>
@@ -1318,11 +1318,11 @@
       </c>
       <c r="J5" s="2">
         <f>SummaryTable_County_wTotals!I3</f>
-        <v>51400</v>
+        <v>69000</v>
       </c>
       <c r="K5" s="19">
         <f>SummaryTable_County_wTotals!J3</f>
-        <v>41100</v>
+        <v>58700</v>
       </c>
       <c r="L5" s="12">
         <f>SummaryTable_County_wTotals!K3</f>
@@ -1330,11 +1330,11 @@
       </c>
       <c r="M5" s="2">
         <f>SummaryTable_County_wTotals!L3</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N5" s="19">
         <f>SummaryTable_County_wTotals!M3</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -1344,15 +1344,15 @@
       </c>
       <c r="C6" s="10">
         <f>SummaryTable_County_wTotals!D4</f>
-        <v>18332.35337063</v>
+        <v>18332.353366010699</v>
       </c>
       <c r="D6" s="11">
         <f>C6/$C$8</f>
-        <v>0.50399090906394284</v>
+        <v>0.503990909000953</v>
       </c>
       <c r="E6" s="3">
         <f>(H6+K6)/($H$8+$K$8)</f>
-        <v>0.55575401888236797</v>
+        <v>0.54178510517339395</v>
       </c>
       <c r="F6" s="10">
         <f>SummaryTable_County_wTotals!E4</f>
@@ -1372,11 +1372,11 @@
       </c>
       <c r="J6" s="1">
         <f>SummaryTable_County_wTotals!I4</f>
-        <v>193500</v>
+        <v>234400</v>
       </c>
       <c r="K6" s="18">
         <f>SummaryTable_County_wTotals!J4</f>
-        <v>148500</v>
+        <v>189400</v>
       </c>
       <c r="L6" s="10">
         <f>SummaryTable_County_wTotals!K4</f>
@@ -1384,11 +1384,11 @@
       </c>
       <c r="M6" s="1">
         <f>SummaryTable_County_wTotals!L4</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N6" s="18">
         <f>SummaryTable_County_wTotals!M4</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -1402,11 +1402,11 @@
       </c>
       <c r="D7" s="13">
         <f>C7/$C$8</f>
-        <v>0.18625792497874594</v>
+        <v>0.18625792500239943</v>
       </c>
       <c r="E7" s="4">
         <f>(H7+K7)/($H$8+$K$8)</f>
-        <v>0.18218933401377901</v>
+        <v>0.19033541785105174</v>
       </c>
       <c r="F7" s="12">
         <f>SummaryTable_County_wTotals!E5</f>
@@ -1426,11 +1426,11 @@
       </c>
       <c r="J7" s="2">
         <f>SummaryTable_County_wTotals!I5</f>
-        <v>63500</v>
+        <v>88100</v>
       </c>
       <c r="K7" s="19">
         <f>SummaryTable_County_wTotals!J5</f>
-        <v>44900</v>
+        <v>69500</v>
       </c>
       <c r="L7" s="12">
         <f>SummaryTable_County_wTotals!K5</f>
@@ -1438,11 +1438,11 @@
       </c>
       <c r="M7" s="2">
         <f>SummaryTable_County_wTotals!L5</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N7" s="19">
         <f>SummaryTable_County_wTotals!M5</f>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="C8" s="14">
         <f>SUM(C4:C7)</f>
-        <v>36374.373110575529</v>
+        <v>36374.373105956227</v>
       </c>
       <c r="D8" s="15">
         <f>C8/$C$8</f>
@@ -1479,11 +1479,11 @@
       </c>
       <c r="J8" s="20">
         <f>SummaryTable_County_wTotals!I6</f>
-        <v>341800</v>
+        <v>437500</v>
       </c>
       <c r="K8" s="21">
         <f>SummaryTable_County_wTotals!J6</f>
-        <v>257800</v>
+        <v>353500</v>
       </c>
       <c r="L8" s="14">
         <f>SummaryTable_County_wTotals!K6</f>
@@ -1491,11 +1491,11 @@
       </c>
       <c r="M8" s="20">
         <f>SummaryTable_County_wTotals!L6</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N8" s="21">
         <f>SummaryTable_County_wTotals!M6</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1517,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C2BE52-68C6-4D80-8DF7-DA47D4994B3C}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,19 +1605,19 @@
         <v>10100</v>
       </c>
       <c r="I2">
-        <v>33400</v>
+        <v>46100</v>
       </c>
       <c r="J2">
-        <v>23300</v>
+        <v>36000</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
       <c r="L2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1646,19 +1646,19 @@
         <v>10300</v>
       </c>
       <c r="I3">
-        <v>51400</v>
+        <v>69000</v>
       </c>
       <c r="J3">
-        <v>41100</v>
+        <v>58700</v>
       </c>
       <c r="K3">
         <v>9</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1672,7 +1672,7 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>18332.35337063</v>
+        <v>18332.353366010699</v>
       </c>
       <c r="E4">
         <v>302800</v>
@@ -1687,19 +1687,19 @@
         <v>45000</v>
       </c>
       <c r="I4">
-        <v>193500</v>
+        <v>234400</v>
       </c>
       <c r="J4">
-        <v>148500</v>
+        <v>189400</v>
       </c>
       <c r="K4">
         <v>19</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1728,19 +1728,19 @@
         <v>18600</v>
       </c>
       <c r="I5">
-        <v>63500</v>
+        <v>88100</v>
       </c>
       <c r="J5">
-        <v>44900</v>
+        <v>69500</v>
       </c>
       <c r="K5">
         <v>16</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>36374.3731105755</v>
+        <v>36374.373105956198</v>
       </c>
       <c r="E6">
         <v>483900</v>
@@ -1766,19 +1766,19 @@
         <v>84000</v>
       </c>
       <c r="I6">
-        <v>341800</v>
+        <v>437500</v>
       </c>
       <c r="J6">
-        <v>257800</v>
+        <v>353500</v>
       </c>
       <c r="K6">
         <v>16</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
